--- a/experiments/nrp_sat_seq_exp_results.xlsx
+++ b/experiments/nrp_sat_seq_exp_results.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0445647</v>
+        <v>0.0444358</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>14.4</v>
       </c>
       <c r="H2" t="n">
         <v>36094</v>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0433575</v>
+        <v>0.0444745</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>14.4</v>
       </c>
       <c r="H3" t="n">
         <v>36094</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0424328</v>
+        <v>0.0444549</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
       <c r="H4" t="n">
         <v>36094</v>
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0422537</v>
+        <v>0.0444423</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>14.3</v>
       </c>
       <c r="H5" t="n">
         <v>36094</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0423987</v>
+        <v>0.0412931</v>
       </c>
       <c r="G6" t="n">
-        <v>7.3</v>
+        <v>14.1</v>
       </c>
       <c r="H6" t="n">
         <v>36094</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0444206</v>
+        <v>0.0412618</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>14.7</v>
       </c>
       <c r="H7" t="n">
         <v>36094</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0423176</v>
+        <v>0.0413954</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>14.6</v>
       </c>
       <c r="H8" t="n">
         <v>36094</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.041216</v>
+        <v>0.0433682</v>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>14.3</v>
       </c>
       <c r="H9" t="n">
         <v>36094</v>
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.042279</v>
+        <v>0.0434507</v>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>14.3</v>
       </c>
       <c r="H10" t="n">
         <v>36094</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0422765</v>
+        <v>0.0412488</v>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>14.2</v>
       </c>
       <c r="H11" t="n">
         <v>36094</v>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04275171</v>
+        <v>0.04298254999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>14.37</v>
       </c>
       <c r="H12" t="n">
         <v>36094</v>
@@ -899,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07004340000000001</v>
+        <v>0.06799819999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>65274</v>
@@ -930,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.072712</v>
+        <v>0.0700892</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>65274</v>
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0710983</v>
+        <v>0.06798120000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
         <v>65274</v>
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0776496</v>
+        <v>0.0679961</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>25.7</v>
       </c>
       <c r="H5" t="n">
         <v>65274</v>
@@ -1023,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07002120000000001</v>
+        <v>0.0690419</v>
       </c>
       <c r="G6" t="n">
-        <v>7.3</v>
+        <v>25.3</v>
       </c>
       <c r="H6" t="n">
         <v>65274</v>
@@ -1054,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0680858</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
         <v>65274</v>
@@ -1085,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07230880000000001</v>
+        <v>0.0702353</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>25.5</v>
       </c>
       <c r="H8" t="n">
         <v>65274</v>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07239950000000001</v>
+        <v>0.0711789</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
         <v>65274</v>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0722426</v>
+        <v>0.0679121</v>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>25.8</v>
       </c>
       <c r="H10" t="n">
         <v>65274</v>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0701155</v>
+        <v>0.0679558</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>25.3</v>
       </c>
       <c r="H11" t="n">
         <v>65274</v>
@@ -1211,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07175909</v>
+        <v>0.06884745</v>
       </c>
       <c r="G12" t="n">
-        <v>5.83</v>
+        <v>25.46</v>
       </c>
       <c r="H12" t="n">
         <v>65274</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113986</v>
+        <v>0.105922</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>40.8</v>
       </c>
       <c r="H2" t="n">
         <v>94454</v>
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.110951</v>
+        <v>0.110633</v>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>40.8</v>
       </c>
       <c r="H3" t="n">
         <v>94454</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108698</v>
+        <v>0.106257</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
         <v>94454</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.107447</v>
+        <v>0.103143</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
         <v>94454</v>
@@ -1432,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108665</v>
+        <v>0.105436</v>
       </c>
       <c r="G6" t="n">
-        <v>7.3</v>
+        <v>40.9</v>
       </c>
       <c r="H6" t="n">
         <v>94454</v>
@@ -1463,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.109631</v>
+        <v>0.110626</v>
       </c>
       <c r="G7" t="n">
-        <v>7.3</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
         <v>94454</v>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.110789</v>
+        <v>0.110673</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>41.7</v>
       </c>
       <c r="H8" t="n">
         <v>94454</v>
@@ -1525,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.107526</v>
+        <v>0.10756</v>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
         <v>94454</v>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.109702</v>
+        <v>0.105642</v>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>40.8</v>
       </c>
       <c r="H10" t="n">
         <v>94454</v>
@@ -1587,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.109721</v>
+        <v>0.104251</v>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
         <v>94454</v>
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1097116</v>
+        <v>0.1070143</v>
       </c>
       <c r="G12" t="n">
-        <v>6.819999999999999</v>
+        <v>40.60000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>94454</v>
@@ -1717,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143019</v>
+        <v>0.147006</v>
       </c>
       <c r="G2" t="n">
-        <v>51.4</v>
+        <v>46.7</v>
       </c>
       <c r="H2" t="n">
         <v>123634</v>
@@ -1748,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13995</v>
+        <v>0.136411</v>
       </c>
       <c r="G3" t="n">
-        <v>52.6</v>
+        <v>46.8</v>
       </c>
       <c r="H3" t="n">
         <v>123634</v>
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.142722</v>
+        <v>0.135116</v>
       </c>
       <c r="G4" t="n">
-        <v>52.5</v>
+        <v>46.9</v>
       </c>
       <c r="H4" t="n">
         <v>123634</v>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.139489</v>
+        <v>0.13508</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7</v>
+        <v>47.9</v>
       </c>
       <c r="H5" t="n">
         <v>123634</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141807</v>
+        <v>0.136234</v>
       </c>
       <c r="G6" t="n">
-        <v>52.9</v>
+        <v>46.8</v>
       </c>
       <c r="H6" t="n">
         <v>123634</v>
@@ -1872,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.147018</v>
+        <v>0.140354</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7</v>
+        <v>47.9</v>
       </c>
       <c r="H7" t="n">
         <v>123634</v>
@@ -1903,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.138376</v>
+        <v>0.134313</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>46.6</v>
       </c>
       <c r="H8" t="n">
         <v>123634</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.138466</v>
+        <v>0.136384</v>
       </c>
       <c r="G9" t="n">
-        <v>52.7</v>
+        <v>48.1</v>
       </c>
       <c r="H9" t="n">
         <v>123634</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.139795</v>
+        <v>0.143784</v>
       </c>
       <c r="G10" t="n">
-        <v>52.9</v>
+        <v>48.2</v>
       </c>
       <c r="H10" t="n">
         <v>123634</v>
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.143959</v>
+        <v>0.13641</v>
       </c>
       <c r="G11" t="n">
-        <v>53</v>
+        <v>46.9</v>
       </c>
       <c r="H11" t="n">
         <v>123634</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1414601</v>
+        <v>0.1381092</v>
       </c>
       <c r="G12" t="n">
-        <v>52.44</v>
+        <v>47.27999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>123634</v>

--- a/experiments/nrp_sat_seq_exp_results.xlsx
+++ b/experiments/nrp_sat_seq_exp_results.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,20 +452,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -490,17 +500,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0444358</v>
+        <v>0.0212155</v>
       </c>
       <c r="G2" t="n">
-        <v>14.4</v>
+        <v>0.00553272</v>
       </c>
       <c r="H2" t="n">
-        <v>36094</v>
+        <v>0.0267482</v>
       </c>
       <c r="I2" t="n">
-        <v>18892</v>
-      </c>
+        <v>14.1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -521,17 +533,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0444745</v>
+        <v>0.0227718</v>
       </c>
       <c r="G3" t="n">
-        <v>14.4</v>
+        <v>0.00562025</v>
       </c>
       <c r="H3" t="n">
-        <v>36094</v>
+        <v>0.0283921</v>
       </c>
       <c r="I3" t="n">
-        <v>18892</v>
-      </c>
+        <v>13.6</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -552,17 +566,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0444549</v>
+        <v>0.0206139</v>
       </c>
       <c r="G4" t="n">
-        <v>14.4</v>
+        <v>0.00473788</v>
       </c>
       <c r="H4" t="n">
-        <v>36094</v>
+        <v>0.0253518</v>
       </c>
       <c r="I4" t="n">
-        <v>18892</v>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -583,17 +599,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0444423</v>
+        <v>0.0210196</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3</v>
+        <v>0.00486491</v>
       </c>
       <c r="H5" t="n">
-        <v>36094</v>
+        <v>0.0258845</v>
       </c>
       <c r="I5" t="n">
-        <v>18892</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -614,17 +632,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0412931</v>
+        <v>0.0208091</v>
       </c>
       <c r="G6" t="n">
-        <v>14.1</v>
+        <v>0.00479512</v>
       </c>
       <c r="H6" t="n">
-        <v>36094</v>
+        <v>0.0256042</v>
       </c>
       <c r="I6" t="n">
-        <v>18892</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -645,17 +665,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0412618</v>
+        <v>0.021666</v>
       </c>
       <c r="G7" t="n">
-        <v>14.7</v>
+        <v>0.00616065</v>
       </c>
       <c r="H7" t="n">
-        <v>36094</v>
+        <v>0.0278267</v>
       </c>
       <c r="I7" t="n">
-        <v>18892</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -676,17 +698,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0413954</v>
+        <v>0.0213643</v>
       </c>
       <c r="G8" t="n">
-        <v>14.6</v>
+        <v>0.00538354</v>
       </c>
       <c r="H8" t="n">
-        <v>36094</v>
+        <v>0.0267478</v>
       </c>
       <c r="I8" t="n">
-        <v>18892</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -707,17 +731,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0433682</v>
+        <v>0.0211277</v>
       </c>
       <c r="G9" t="n">
-        <v>14.3</v>
+        <v>0.00536333</v>
       </c>
       <c r="H9" t="n">
-        <v>36094</v>
+        <v>0.0264911</v>
       </c>
       <c r="I9" t="n">
-        <v>18892</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -738,17 +764,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0434507</v>
+        <v>0.0213639</v>
       </c>
       <c r="G10" t="n">
-        <v>14.3</v>
+        <v>0.00556403</v>
       </c>
       <c r="H10" t="n">
-        <v>36094</v>
+        <v>0.0269279</v>
       </c>
       <c r="I10" t="n">
-        <v>18892</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -769,17 +797,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0412488</v>
+        <v>0.0225553</v>
       </c>
       <c r="G11" t="n">
-        <v>14.2</v>
+        <v>0.00639248</v>
       </c>
       <c r="H11" t="n">
-        <v>36094</v>
+        <v>0.0289478</v>
       </c>
       <c r="I11" t="n">
-        <v>18892</v>
-      </c>
+        <v>13.6</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -802,17 +832,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04298254999999999</v>
+        <v>0.02145071</v>
       </c>
       <c r="G12" t="n">
-        <v>14.37</v>
+        <v>0.005441491</v>
       </c>
       <c r="H12" t="n">
-        <v>36094</v>
+        <v>0.02689221000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>18892</v>
-      </c>
+        <v>13.92</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -825,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,20 +893,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -899,17 +941,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06799819999999999</v>
+        <v>0.0409223</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>0.0101907</v>
       </c>
       <c r="H2" t="n">
-        <v>65274</v>
+        <v>0.051113</v>
       </c>
       <c r="I2" t="n">
-        <v>34092</v>
-      </c>
+        <v>26.6</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -930,17 +974,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0700892</v>
+        <v>0.0405839</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>0.0106785</v>
       </c>
       <c r="H3" t="n">
-        <v>65274</v>
+        <v>0.0512624</v>
       </c>
       <c r="I3" t="n">
-        <v>34092</v>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -961,17 +1007,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06798120000000001</v>
+        <v>0.0428405</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>0.0105669</v>
       </c>
       <c r="H4" t="n">
-        <v>65274</v>
+        <v>0.0534074</v>
       </c>
       <c r="I4" t="n">
-        <v>34092</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -992,17 +1040,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0679961</v>
+        <v>0.0503368</v>
       </c>
       <c r="G5" t="n">
-        <v>25.7</v>
+        <v>0.0116593</v>
       </c>
       <c r="H5" t="n">
-        <v>65274</v>
+        <v>0.0619961</v>
       </c>
       <c r="I5" t="n">
-        <v>34092</v>
-      </c>
+        <v>26.8</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1023,17 +1073,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0690419</v>
+        <v>0.0395168</v>
       </c>
       <c r="G6" t="n">
-        <v>25.3</v>
+        <v>0.00926767</v>
       </c>
       <c r="H6" t="n">
-        <v>65274</v>
+        <v>0.0487845</v>
       </c>
       <c r="I6" t="n">
-        <v>34092</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1054,17 +1106,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0680858</v>
+        <v>0.0382896</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>0.00856849</v>
       </c>
       <c r="H7" t="n">
-        <v>65274</v>
+        <v>0.046858</v>
       </c>
       <c r="I7" t="n">
-        <v>34092</v>
-      </c>
+        <v>25.9</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1085,17 +1139,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0702353</v>
+        <v>0.0440698</v>
       </c>
       <c r="G8" t="n">
-        <v>25.5</v>
+        <v>0.011463</v>
       </c>
       <c r="H8" t="n">
-        <v>65274</v>
+        <v>0.0555327</v>
       </c>
       <c r="I8" t="n">
-        <v>34092</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1116,17 +1172,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0711789</v>
+        <v>0.0434486</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>0.0111441</v>
       </c>
       <c r="H9" t="n">
-        <v>65274</v>
+        <v>0.0545927</v>
       </c>
       <c r="I9" t="n">
-        <v>34092</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1147,17 +1205,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0679121</v>
+        <v>0.0398996</v>
       </c>
       <c r="G10" t="n">
-        <v>25.8</v>
+        <v>0.010547</v>
       </c>
       <c r="H10" t="n">
-        <v>65274</v>
+        <v>0.0504467</v>
       </c>
       <c r="I10" t="n">
-        <v>34092</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1178,17 +1238,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0679558</v>
+        <v>0.0417122</v>
       </c>
       <c r="G11" t="n">
-        <v>25.3</v>
+        <v>0.0109787</v>
       </c>
       <c r="H11" t="n">
-        <v>65274</v>
+        <v>0.0526908</v>
       </c>
       <c r="I11" t="n">
-        <v>34092</v>
-      </c>
+        <v>25.9</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1211,17 +1273,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06884745</v>
+        <v>0.04216200999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>25.46</v>
+        <v>0.010506436</v>
       </c>
       <c r="H12" t="n">
-        <v>65274</v>
+        <v>0.05266843</v>
       </c>
       <c r="I12" t="n">
-        <v>34092</v>
-      </c>
+        <v>26.03</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1234,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,20 +1334,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1308,17 +1382,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105922</v>
+        <v>0.0673102</v>
       </c>
       <c r="G2" t="n">
-        <v>40.8</v>
+        <v>0.0153914</v>
       </c>
       <c r="H2" t="n">
-        <v>94454</v>
+        <v>0.0827016</v>
       </c>
       <c r="I2" t="n">
-        <v>49292</v>
-      </c>
+        <v>39.8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1339,17 +1415,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.110633</v>
+        <v>0.0660911</v>
       </c>
       <c r="G3" t="n">
-        <v>40.8</v>
+        <v>0.0152354</v>
       </c>
       <c r="H3" t="n">
-        <v>94454</v>
+        <v>0.0813265</v>
       </c>
       <c r="I3" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1370,17 +1448,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.106257</v>
+        <v>0.0713197</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>0.0157933</v>
       </c>
       <c r="H4" t="n">
-        <v>94454</v>
+        <v>0.087113</v>
       </c>
       <c r="I4" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1401,17 +1481,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.103143</v>
+        <v>0.0698058</v>
       </c>
       <c r="G5" t="n">
+        <v>0.0157359</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0855417</v>
+      </c>
+      <c r="I5" t="n">
         <v>40</v>
       </c>
-      <c r="H5" t="n">
-        <v>94454</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49292</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1432,17 +1514,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105436</v>
+        <v>0.07067320000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>40.9</v>
+        <v>0.0166065</v>
       </c>
       <c r="H6" t="n">
-        <v>94454</v>
+        <v>0.0872798</v>
       </c>
       <c r="I6" t="n">
-        <v>49292</v>
-      </c>
+        <v>39.7</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1463,17 +1547,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.110626</v>
+        <v>0.0692395</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>0.0159004</v>
       </c>
       <c r="H7" t="n">
-        <v>94454</v>
+        <v>0.0851399</v>
       </c>
       <c r="I7" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1494,17 +1580,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.110673</v>
+        <v>0.0738304</v>
       </c>
       <c r="G8" t="n">
-        <v>41.7</v>
+        <v>0.0162444</v>
       </c>
       <c r="H8" t="n">
-        <v>94454</v>
+        <v>0.0900748</v>
       </c>
       <c r="I8" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1525,17 +1613,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.10756</v>
+        <v>0.07377590000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>0.0158808</v>
       </c>
       <c r="H9" t="n">
-        <v>94454</v>
+        <v>0.08965670000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.8</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1556,17 +1646,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.105642</v>
+        <v>0.0699207</v>
       </c>
       <c r="G10" t="n">
-        <v>40.8</v>
+        <v>0.0160721</v>
       </c>
       <c r="H10" t="n">
-        <v>94454</v>
+        <v>0.08599279999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>49292</v>
-      </c>
+        <v>39.8</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1587,17 +1679,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.104251</v>
+        <v>0.06881089999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>0.0145976</v>
       </c>
       <c r="H11" t="n">
-        <v>94454</v>
+        <v>0.0834085</v>
       </c>
       <c r="I11" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1620,17 +1714,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1070143</v>
+        <v>0.07007774000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>40.60000000000001</v>
+        <v>0.01574578</v>
       </c>
       <c r="H12" t="n">
-        <v>94454</v>
+        <v>0.08582353</v>
       </c>
       <c r="I12" t="n">
-        <v>49292</v>
-      </c>
+        <v>40.16000000000001</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1643,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,20 +1775,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1717,17 +1823,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.147006</v>
+        <v>0.0864198</v>
       </c>
       <c r="G2" t="n">
-        <v>46.7</v>
+        <v>0.0203437</v>
       </c>
       <c r="H2" t="n">
-        <v>123634</v>
+        <v>0.106763</v>
       </c>
       <c r="I2" t="n">
-        <v>64492</v>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1748,17 +1856,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.136411</v>
+        <v>0.0847165</v>
       </c>
       <c r="G3" t="n">
-        <v>46.8</v>
+        <v>0.0195095</v>
       </c>
       <c r="H3" t="n">
-        <v>123634</v>
+        <v>0.104226</v>
       </c>
       <c r="I3" t="n">
-        <v>64492</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1779,17 +1889,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.135116</v>
+        <v>0.11262</v>
       </c>
       <c r="G4" t="n">
-        <v>46.9</v>
+        <v>0.0218868</v>
       </c>
       <c r="H4" t="n">
-        <v>123634</v>
+        <v>0.134507</v>
       </c>
       <c r="I4" t="n">
-        <v>64492</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1810,17 +1922,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13508</v>
+        <v>0.0783596</v>
       </c>
       <c r="G5" t="n">
-        <v>47.9</v>
+        <v>0.0196872</v>
       </c>
       <c r="H5" t="n">
-        <v>123634</v>
+        <v>0.0980468</v>
       </c>
       <c r="I5" t="n">
-        <v>64492</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1841,17 +1955,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.136234</v>
+        <v>0.0755546</v>
       </c>
       <c r="G6" t="n">
-        <v>46.8</v>
+        <v>0.0193434</v>
       </c>
       <c r="H6" t="n">
-        <v>123634</v>
+        <v>0.094898</v>
       </c>
       <c r="I6" t="n">
-        <v>64492</v>
-      </c>
+        <v>48.4</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1872,17 +1988,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.140354</v>
+        <v>0.0853757</v>
       </c>
       <c r="G7" t="n">
-        <v>47.9</v>
+        <v>0.0213178</v>
       </c>
       <c r="H7" t="n">
-        <v>123634</v>
+        <v>0.106694</v>
       </c>
       <c r="I7" t="n">
-        <v>64492</v>
-      </c>
+        <v>46.7</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1903,17 +2021,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.134313</v>
+        <v>0.08836239999999999</v>
       </c>
       <c r="G8" t="n">
+        <v>0.0196897</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.108052</v>
+      </c>
+      <c r="I8" t="n">
         <v>46.6</v>
       </c>
-      <c r="H8" t="n">
-        <v>123634</v>
-      </c>
-      <c r="I8" t="n">
-        <v>64492</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1934,17 +2054,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.136384</v>
+        <v>0.0764924</v>
       </c>
       <c r="G9" t="n">
-        <v>48.1</v>
+        <v>0.0188136</v>
       </c>
       <c r="H9" t="n">
-        <v>123634</v>
+        <v>0.0953059</v>
       </c>
       <c r="I9" t="n">
-        <v>64492</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1965,17 +2087,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.143784</v>
+        <v>0.0800889</v>
       </c>
       <c r="G10" t="n">
-        <v>48.2</v>
+        <v>0.0198771</v>
       </c>
       <c r="H10" t="n">
-        <v>123634</v>
+        <v>0.099966</v>
       </c>
       <c r="I10" t="n">
-        <v>64492</v>
-      </c>
+        <v>46.8</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1996,17 +2120,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13641</v>
+        <v>0.0932211</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9</v>
+        <v>0.0225669</v>
       </c>
       <c r="H11" t="n">
-        <v>123634</v>
+        <v>0.115788</v>
       </c>
       <c r="I11" t="n">
-        <v>64492</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2029,17 +2155,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1381092</v>
+        <v>0.08612110000000002</v>
       </c>
       <c r="G12" t="n">
-        <v>47.27999999999999</v>
+        <v>0.02030357</v>
       </c>
       <c r="H12" t="n">
-        <v>123634</v>
+        <v>0.10642467</v>
       </c>
       <c r="I12" t="n">
-        <v>64492</v>
-      </c>
+        <v>47.42</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
